--- a/UI Automation Saucedemo.com Cypress E2E With POM Test Case.xlsx
+++ b/UI Automation Saucedemo.com Cypress E2E With POM Test Case.xlsx
@@ -977,8 +977,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
